--- a/Docs/Landing_Offline/LandingOffline.xlsx
+++ b/Docs/Landing_Offline/LandingOffline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Docs\Docs\Landing_Offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ADF0F3-38AD-47AF-A749-DED0256A4333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279348F9-A7D7-4189-BA9A-3E26FB5354C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6765" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>https://xd.adobe.com/view/8e5fd378-811e-4fb4-8b53-0f50df5cf481-db0c/</t>
   </si>
@@ -271,6 +271,9 @@
       </rPr>
       <t>"Động"</t>
     </r>
+  </si>
+  <si>
+    <t>Web test : https://sukien.talenttech6.com/#</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,112 +619,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Docs/Landing_Offline/LandingOffline.xlsx
+++ b/Docs/Landing_Offline/LandingOffline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Docs\Docs\Landing_Offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c01515023adb62f/Desktop/Talent/TalentTechDocs/Docs/Landing_Offline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279348F9-A7D7-4189-BA9A-3E26FB5354C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{279348F9-A7D7-4189-BA9A-3E26FB5354C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68F02445-D500-4CD0-880E-53562211B50A}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +292,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,15 +322,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,62 +615,62 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -667,12 +678,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
@@ -680,17 +691,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
@@ -698,43 +709,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E7F8D88E-8141-4396-9D56-9A2BB091ABA1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Landing_Offline/LandingOffline.xlsx
+++ b/Docs/Landing_Offline/LandingOffline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c01515023adb62f/Desktop/Talent/TalentTechDocs/Docs/Landing_Offline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Talent\TalentTechDocs\Docs\Landing_Offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{279348F9-A7D7-4189-BA9A-3E26FB5354C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68F02445-D500-4CD0-880E-53562211B50A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3242A86-7FA2-474B-8A6C-D1E05A49AFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
